--- a/practicetools/pkvancomycin/Resources/Data Validation.xlsx
+++ b/practicetools/pkvancomycin/Resources/Data Validation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Josh's Files\Study Buffalo\Website\practicetools\pkvancomycin\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Documents\GitHub\studybuffalo\practicetools\pkvancomycin\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -708,6 +708,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,24 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,77 +1071,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="62" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62" t="s">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="64" t="s">
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="61" t="s">
+      <c r="AD1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AH1" s="58" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AH1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="59" t="s">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
       <c r="AO1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1152,15 +1152,15 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="32"/>
       <c r="K2" s="33" t="s">
         <v>15</v>
@@ -2381,11 +2381,11 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
       <c r="AR14" s="3"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2424,15 +2424,21 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
       <c r="AR15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AM14:AQ15"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="G1:G2"/>
@@ -2444,12 +2450,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AM14:AQ15"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="Q1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2462,72 +2462,72 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="67">
+      <c r="L1" s="62">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="62" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2622,14 +2622,13 @@
         <v>6.5820000000000004E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M7" si="2">ROUND(L4,3)</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N4" s="30">
-        <v>6.6000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O7" si="3">IF(M4=N4, "Yes", "No")</f>
+        <f t="shared" ref="O4:O7" si="2">IF(M4=N4, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -2674,15 +2673,14 @@
         <v>0.10151</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
-        <v>0.10199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="24">
         <v>0.1</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -2726,15 +2724,14 @@
         <v>7.6609999999999998E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>7.6999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="N6" s="30">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -2778,19 +2775,25 @@
         <v>0.12226000000000001</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
       <c r="N7" s="24">
         <v>0.12</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -2799,13 +2802,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2841,26 +2837,26 @@
   <sheetData>
     <row r="1" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="37" t="s">
         <v>10</v>
       </c>
@@ -2895,11 +2891,11 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="23" t="s">
         <v>15</v>
       </c>
